--- a/2023/01解决方案/九音项目&产品方案汇总2023-3-5/方案收敛2.xlsx
+++ b/2023/01解决方案/九音项目&产品方案汇总2023-3-5/方案收敛2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\01解决方案\九音项目&amp;产品方案汇总2023-3-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E7A529-408D-4703-B520-DF3D2691CCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099600AE-B280-4BEE-B5D2-EE1CAEB868B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3120F48D-46AF-4808-814B-72F293796D91}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">方案推广明细!$B$3:$R$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1158,95 +1158,95 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1299,7 +1299,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3554005" y="4107180"/>
+          <a:off x="3554005" y="3954780"/>
           <a:ext cx="1391375" cy="754380"/>
           <a:chOff x="3188577" y="1585920"/>
           <a:chExt cx="2119998" cy="1127885"/>
@@ -2052,10 +2052,10 @@
   <dimension ref="B2:R68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2081,62 +2081,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2169,33 +2169,33 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="37" t="s">
         <v>75</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -2212,17 +2212,17 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="3" t="s">
         <v>166</v>
       </c>
@@ -2233,13 +2233,13 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2260,13 +2260,13 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="6" t="s">
         <v>153</v>
       </c>
@@ -2289,23 +2289,23 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="60" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="42" t="s">
         <v>77</v>
       </c>
       <c r="M8" s="5" t="s">
@@ -2317,24 +2317,24 @@
       <c r="O8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="46" t="s">
         <v>140</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2344,18 +2344,18 @@
       <c r="O9" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P9" s="45"/>
+      <c r="P9" s="48"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="6" t="s">
         <v>21</v>
       </c>
@@ -2381,14 +2381,14 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="2:18" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+    <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="6" t="s">
         <v>148</v>
       </c>
@@ -2411,13 +2411,13 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="6" t="s">
         <v>149</v>
       </c>
@@ -2440,21 +2440,21 @@
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="60" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="42" t="s">
         <v>150</v>
       </c>
       <c r="J13" s="33"/>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="42" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -2471,19 +2471,19 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="5" t="s">
         <v>152</v>
       </c>
@@ -2496,13 +2496,13 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="6" t="s">
         <v>164</v>
       </c>
@@ -2523,13 +2523,13 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2542,13 +2542,13 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="6" t="s">
         <v>147</v>
       </c>
@@ -2571,13 +2571,13 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="45"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
@@ -2604,17 +2604,17 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="59" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46" t="s">
         <v>51</v>
       </c>
       <c r="I19" s="6"/>
@@ -2629,13 +2629,13 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2648,13 +2648,13 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2667,13 +2667,13 @@
       <c r="R21" s="5"/>
     </row>
     <row r="22" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="45"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2686,17 +2686,17 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8" t="s">
@@ -2719,11 +2719,11 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="51"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8" t="s">
@@ -2744,11 +2744,11 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="51"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8" t="s">
@@ -2769,11 +2769,11 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="2:18" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="52"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8" t="s">
@@ -2802,7 +2802,7 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="2:18" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="19"/>
       <c r="D27" s="29" t="s">
         <v>106</v>
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="19"/>
       <c r="D28" s="16" t="s">
         <v>107</v>
@@ -2870,7 +2870,7 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="17"/>
       <c r="D29" s="16" t="s">
         <v>108</v>
@@ -2893,7 +2893,7 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="39" t="s">
         <v>82</v>
       </c>
       <c r="C30" s="18"/>
@@ -2918,7 +2918,7 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
       <c r="E31" s="6"/>
@@ -2941,7 +2941,7 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="18"/>
       <c r="D32" s="13"/>
       <c r="E32" s="6"/>
@@ -2964,7 +2964,7 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
       <c r="E33" s="6"/>
@@ -2987,7 +2987,7 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="18"/>
       <c r="D34" s="13"/>
       <c r="E34" s="6"/>
@@ -3010,7 +3010,7 @@
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
       <c r="E35" s="6"/>
@@ -3029,19 +3029,19 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61" t="s">
+      <c r="F36" s="34"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52" t="s">
         <v>156</v>
       </c>
       <c r="I36" s="8" t="s">
@@ -3062,13 +3062,13 @@
       <c r="R36" s="7"/>
     </row>
     <row r="37" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B37" s="58"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -3081,13 +3081,13 @@
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3100,13 +3100,13 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -3119,13 +3119,13 @@
       <c r="R39" s="7"/>
     </row>
     <row r="40" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -3138,13 +3138,13 @@
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B41" s="58"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -3157,17 +3157,17 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -3180,13 +3180,13 @@
       <c r="R42" s="7"/>
     </row>
     <row r="43" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -3199,13 +3199,13 @@
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3218,13 +3218,13 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -3237,13 +3237,13 @@
       <c r="R45" s="7"/>
     </row>
     <row r="46" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -3256,7 +3256,7 @@
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="18"/>
@@ -3293,7 +3293,7 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="14"/>
       <c r="D48" s="13" t="s">
         <v>190</v>
@@ -3314,17 +3314,17 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="50"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>33</v>
@@ -3343,11 +3343,11 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="51"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="50"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="8"/>
@@ -3362,11 +3362,11 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="51"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="50"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="8"/>
@@ -3381,11 +3381,11 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="51"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="50"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="8"/>
@@ -3400,11 +3400,11 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="52"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="8"/>
@@ -3419,7 +3419,7 @@
       <c r="R53" s="7"/>
     </row>
     <row r="54" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B54" s="58"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="19"/>
       <c r="D54" s="16"/>
       <c r="E54" s="8"/>
@@ -3438,7 +3438,7 @@
       <c r="R54" s="7"/>
     </row>
     <row r="55" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="19"/>
       <c r="D55" s="16"/>
       <c r="E55" s="8"/>
@@ -3457,7 +3457,7 @@
       <c r="R55" s="7"/>
     </row>
     <row r="56" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="19"/>
       <c r="D56" s="16"/>
       <c r="E56" s="8"/>
@@ -3476,7 +3476,7 @@
       <c r="R56" s="7"/>
     </row>
     <row r="57" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="19"/>
       <c r="D57" s="16" t="s">
         <v>34</v>
@@ -3499,7 +3499,7 @@
       <c r="R57" s="7"/>
     </row>
     <row r="58" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="19"/>
       <c r="D58" s="16"/>
       <c r="E58" s="8"/>
@@ -3518,7 +3518,7 @@
       <c r="R58" s="7"/>
     </row>
     <row r="59" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="19"/>
       <c r="D59" s="16"/>
       <c r="E59" s="8"/>
@@ -3537,7 +3537,7 @@
       <c r="R59" s="7"/>
     </row>
     <row r="60" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B60" s="54"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="17"/>
       <c r="D60" s="16"/>
       <c r="E60" s="8"/>
@@ -3579,7 +3579,7 @@
       <c r="R61" s="5"/>
     </row>
     <row r="62" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B62" s="53"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="E62" s="8"/>
@@ -3598,7 +3598,7 @@
       <c r="R62" s="7"/>
     </row>
     <row r="63" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B63" s="54"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
       <c r="E63" s="8"/>
@@ -3617,7 +3617,7 @@
       <c r="R63" s="7"/>
     </row>
     <row r="64" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="18"/>
       <c r="D64" s="13"/>
       <c r="E64" s="6"/>
@@ -3636,7 +3636,7 @@
       <c r="R64" s="5"/>
     </row>
     <row r="65" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B65" s="40"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="14"/>
       <c r="D65" s="13"/>
       <c r="E65" s="6"/>
@@ -3667,39 +3667,12 @@
   </sheetData>
   <autoFilter ref="B3:R3" xr:uid="{85ADE170-6CD7-4047-B2E0-1F857E4AD756}"/>
   <mergeCells count="55">
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="F36:F41"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="B49:B60"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="B4:B22"/>
     <mergeCell ref="D4:D18"/>
@@ -3716,12 +3689,39 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B49:B60"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="F36:F41"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">

--- a/2023/01解决方案/九音项目&产品方案汇总2023-3-5/方案收敛2.xlsx
+++ b/2023/01解决方案/九音项目&产品方案汇总2023-3-5/方案收敛2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\01解决方案\九音项目&amp;产品方案汇总2023-3-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099600AE-B280-4BEE-B5D2-EE1CAEB868B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B6F233-E7B7-47F3-8490-EEAD293DC364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3120F48D-46AF-4808-814B-72F293796D91}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="197">
   <si>
     <t>解决方案</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -243,10 +243,6 @@
     <t>场景需求
 &amp;
 最适合的领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡车司机、物流司机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -799,6 +795,30 @@
   </si>
   <si>
     <t>制作了100套手模样机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量一般，首单外没有后续订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降噪效果不理想、双讲效果不理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项</t>
+  </si>
+  <si>
+    <t>单麦降噪、
+蓝牙无线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车司机、物流司机、任意驾驶员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境降噪、回声消除、混响抑制、</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,9 +1175,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,51 +1247,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1220,33 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1568,15 +1585,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1234440</xdr:colOff>
+      <xdr:colOff>1496634</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133773</xdr:rowOff>
+      <xdr:rowOff>464820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1604,8 +1621,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3703320" y="5760720"/>
-          <a:ext cx="1021080" cy="690033"/>
+          <a:off x="3543300" y="4815840"/>
+          <a:ext cx="1443294" cy="975360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,10 +2069,10 @@
   <dimension ref="B2:R68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36:H41"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2081,150 +2098,150 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="M4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2233,25 +2250,25 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -2260,27 +2277,27 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="47"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2289,24 +2306,24 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="42" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>77</v>
+      <c r="J8" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>19</v>
@@ -2315,26 +2332,26 @@
         <v>48</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2342,67 +2359,67 @@
         <v>48</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P9" s="48"/>
+        <v>141</v>
+      </c>
+      <c r="P9" s="43"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="47"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2411,27 +2428,27 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2440,52 +2457,52 @@
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="42" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>48</v>
@@ -2496,24 +2513,24 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
@@ -2523,13 +2540,13 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="47"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2542,27 +2559,27 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="47"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2571,51 +2588,53 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="48"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="O18" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46" t="s">
-        <v>51</v>
+      <c r="E19" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>195</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2629,13 +2648,13 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="47"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2648,13 +2667,13 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="47"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2667,13 +2686,13 @@
       <c r="R21" s="5"/>
     </row>
     <row r="22" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="48"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2686,32 +2705,36 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="54" t="s">
+        <v>196</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="7"/>
@@ -2719,24 +2742,28 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="7"/>
@@ -2744,24 +2771,28 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="7"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="7"/>
@@ -2769,43 +2800,43 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="2:18" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="7"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K26" s="8" t="s">
+      <c r="L26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="O26" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="2:18" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="19"/>
       <c r="D27" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>26</v>
@@ -2814,39 +2845,39 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O27" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="19"/>
       <c r="D28" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>26</v>
@@ -2855,10 +2886,10 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -2870,10 +2901,10 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="17"/>
       <c r="D29" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>26</v>
@@ -2893,8 +2924,8 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
-        <v>82</v>
+      <c r="B30" s="49" t="s">
+        <v>81</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="13"/>
@@ -2903,10 +2934,10 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -2918,7 +2949,7 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
       <c r="E31" s="6"/>
@@ -2926,10 +2957,10 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -2941,7 +2972,7 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="18"/>
       <c r="D32" s="13"/>
       <c r="E32" s="6"/>
@@ -2949,10 +2980,10 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2964,7 +2995,7 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
       <c r="E33" s="6"/>
@@ -2972,10 +3003,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -2987,7 +3018,7 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="18"/>
       <c r="D34" s="13"/>
       <c r="E34" s="6"/>
@@ -2995,10 +3026,10 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -3010,7 +3041,7 @@
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
       <c r="E35" s="6"/>
@@ -3029,30 +3060,30 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52" t="s">
-        <v>156</v>
+      <c r="F36" s="54"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60" t="s">
+        <v>155</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="8"/>
@@ -3062,13 +3093,13 @@
       <c r="R36" s="7"/>
     </row>
     <row r="37" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B37" s="55"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -3081,13 +3112,13 @@
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B38" s="55"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3100,13 +3131,13 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B39" s="55"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -3119,13 +3150,13 @@
       <c r="R39" s="7"/>
     </row>
     <row r="40" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B40" s="55"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -3138,13 +3169,13 @@
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B41" s="55"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -3157,17 +3188,17 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B42" s="55"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -3180,13 +3211,13 @@
       <c r="R42" s="7"/>
     </row>
     <row r="43" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B43" s="55"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -3199,13 +3230,13 @@
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B44" s="55"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3218,13 +3249,13 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B45" s="55"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -3237,13 +3268,13 @@
       <c r="R45" s="7"/>
     </row>
     <row r="46" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -3256,12 +3287,12 @@
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>26</v>
@@ -3272,19 +3303,19 @@
         <v>29</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -3293,10 +3324,10 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="14"/>
       <c r="D48" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5"/>
@@ -3314,23 +3345,23 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="49"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -3343,11 +3374,11 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="50"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="8"/>
@@ -3362,11 +3393,11 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B51" s="55"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="50"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="8"/>
@@ -3381,11 +3412,11 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B52" s="55"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="50"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="52"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="8"/>
@@ -3400,11 +3431,11 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B53" s="55"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="51"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="8"/>
@@ -3419,7 +3450,7 @@
       <c r="R53" s="7"/>
     </row>
     <row r="54" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B54" s="55"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="19"/>
       <c r="D54" s="16"/>
       <c r="E54" s="8"/>
@@ -3438,7 +3469,7 @@
       <c r="R54" s="7"/>
     </row>
     <row r="55" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B55" s="55"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="19"/>
       <c r="D55" s="16"/>
       <c r="E55" s="8"/>
@@ -3457,7 +3488,7 @@
       <c r="R55" s="7"/>
     </row>
     <row r="56" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="19"/>
       <c r="D56" s="16"/>
       <c r="E56" s="8"/>
@@ -3476,7 +3507,7 @@
       <c r="R56" s="7"/>
     </row>
     <row r="57" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B57" s="55"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="19"/>
       <c r="D57" s="16" t="s">
         <v>34</v>
@@ -3499,7 +3530,7 @@
       <c r="R57" s="7"/>
     </row>
     <row r="58" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B58" s="55"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="19"/>
       <c r="D58" s="16"/>
       <c r="E58" s="8"/>
@@ -3518,7 +3549,7 @@
       <c r="R58" s="7"/>
     </row>
     <row r="59" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B59" s="55"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="19"/>
       <c r="D59" s="16"/>
       <c r="E59" s="8"/>
@@ -3537,7 +3568,7 @@
       <c r="R59" s="7"/>
     </row>
     <row r="60" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B60" s="44"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="17"/>
       <c r="D60" s="16"/>
       <c r="E60" s="8"/>
@@ -3579,7 +3610,7 @@
       <c r="R61" s="5"/>
     </row>
     <row r="62" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B62" s="43"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="E62" s="8"/>
@@ -3598,7 +3629,7 @@
       <c r="R62" s="7"/>
     </row>
     <row r="63" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B63" s="44"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
       <c r="E63" s="8"/>
@@ -3617,7 +3648,7 @@
       <c r="R63" s="7"/>
     </row>
     <row r="64" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B64" s="39"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="18"/>
       <c r="D64" s="13"/>
       <c r="E64" s="6"/>
@@ -3636,7 +3667,7 @@
       <c r="R64" s="5"/>
     </row>
     <row r="65" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="14"/>
       <c r="D65" s="13"/>
       <c r="E65" s="6"/>
@@ -3656,23 +3687,52 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:R3" xr:uid="{85ADE170-6CD7-4047-B2E0-1F857E4AD756}"/>
-  <mergeCells count="55">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:L2"/>
+  <mergeCells count="57">
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="F36:F41"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B49:B60"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="E42:E46"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="B4:B22"/>
     <mergeCell ref="D4:D18"/>
@@ -3689,39 +3749,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="B49:B60"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="F36:F41"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -3756,7 +3789,7 @@
           <x14:formula1>
             <xm:f>'数据-代理列表'!$C$4:$C$21</xm:f>
           </x14:formula1>
-          <xm:sqref>J4 J6:J8 J10:J65</xm:sqref>
+          <xm:sqref>J4 J6:J8 J10:J13 J15:J65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A94EE43A-57F6-47BF-9005-7341D8F8DB4B}">
           <x14:formula1>
@@ -3798,13 +3831,13 @@
   <sheetData>
     <row r="3" spans="3:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -3858,7 +3891,7 @@
     </row>
     <row r="10" spans="3:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C10" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -4018,10 +4051,10 @@
   <sheetData>
     <row r="3" spans="3:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -4032,7 +4065,7 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -4044,10 +4077,10 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -4058,10 +4091,10 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -4072,10 +4105,10 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -4298,13 +4331,13 @@
     <row r="3" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -4315,10 +4348,10 @@
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -4330,10 +4363,10 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -4345,10 +4378,10 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -4360,10 +4393,10 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -4676,23 +4709,23 @@
   <sheetData>
     <row r="4" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="65"/>
+        <v>58</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="64"/>
       <c r="G4" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
@@ -4703,11 +4736,11 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -4720,11 +4753,11 @@
         <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -4752,7 +4785,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -4767,7 +4800,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -4777,14 +4810,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -4794,14 +4827,14 @@
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -4811,10 +4844,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4826,14 +4859,14 @@
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -4843,14 +4876,14 @@
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -4860,19 +4893,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="27.6" x14ac:dyDescent="0.25">
@@ -4880,17 +4913,17 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -4899,7 +4932,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -4912,10 +4945,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -4927,14 +4960,14 @@
         <v>15</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -4944,10 +4977,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -4959,10 +4992,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -4974,10 +5007,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -4989,10 +5022,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -5004,10 +5037,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -5019,10 +5052,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -5034,10 +5067,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -5049,7 +5082,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -5062,7 +5095,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -5075,7 +5108,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -5088,7 +5121,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -5101,14 +5134,14 @@
         <v>27</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5118,10 +5151,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -5133,14 +5166,14 @@
         <v>29</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -5966,7 +5999,7 @@
     <row r="3" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -5980,7 +6013,7 @@
     <row r="4" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -5994,7 +6027,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -6008,7 +6041,7 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -6022,7 +6055,7 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6036,7 +6069,7 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -6050,7 +6083,7 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -6064,7 +6097,7 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
